--- a/LAB1/tema/Lab01_ReviewReport.xlsx
+++ b/LAB1/tema/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\An3\VVSS\LAB1\cerinte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\An3\VVSS\LAB1\tema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DDA57CDB-EE14-4BEC-A9E6-B8A6C1EEDDAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{581218EF-1C40-4F6B-BA39-F86EEF172912}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="157" windowWidth="14164" windowHeight="8273" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="4071" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Employee.java / line 142</t>
-  </si>
-  <si>
-    <t>Employee.java / line 143</t>
   </si>
   <si>
     <t>C01</t>
@@ -399,47 +396,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -785,7 +782,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -806,49 +803,49 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>43192</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -883,13 +880,13 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -898,13 +895,13 @@
         <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -913,13 +910,13 @@
         <f>B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -928,13 +925,13 @@
         <f>B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1001,10 +998,10 @@
         <f t="shared" ref="B19:B24" si="0">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1124,49 +1121,49 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>43192</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1227,7 +1224,7 @@
     </row>
     <row r="13" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <f t="shared" ref="B13:B24" si="0">B12+1</f>
+        <f t="shared" ref="B13" si="0">B12+1</f>
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1237,7 +1234,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1247,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <f t="shared" ref="B15:B24" si="1">B14+1</f>
+        <f t="shared" ref="B15" si="1">B14+1</f>
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B24" si="2">B16+1</f>
+        <f t="shared" ref="B17" si="2">B16+1</f>
         <v>5</v>
       </c>
       <c r="C17" s="1"/>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <f t="shared" ref="B19:B24" si="3">B18+1</f>
+        <f t="shared" ref="B19" si="3">B18+1</f>
         <v>6</v>
       </c>
       <c r="C19" s="1"/>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <f t="shared" ref="B21:B24" si="4">B20+1</f>
+        <f t="shared" ref="B21" si="4">B20+1</f>
         <v>7</v>
       </c>
       <c r="C21" s="1"/>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B24" si="5">B22+1</f>
+        <f t="shared" ref="B23" si="5">B22+1</f>
         <v>8</v>
       </c>
       <c r="C23" s="1"/>
@@ -1363,10 +1360,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1386,49 +1383,49 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>43192</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1449,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
@@ -1464,27 +1461,29 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <f t="shared" ref="B12:B29" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1492,13 +1491,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
@@ -1507,13 +1506,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
@@ -1522,29 +1521,23 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.15" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1561,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1570,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1579,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -1588,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -1624,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -1633,8 +1626,8 @@
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
@@ -1643,7 +1636,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
@@ -1664,27 +1657,20 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C10:E16">
-    <sortCondition ref="C10:C16"/>
+  <sortState ref="C10:E15">
+    <sortCondition ref="C10:C15"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="D4:E4"/>
